--- a/docs/CatalogosBD.xlsx
+++ b/docs/CatalogosBD.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NACIONALIDADES" sheetId="1" r:id="rId1"/>
     <sheet name="PROVINCIAS" sheetId="2" r:id="rId2"/>
     <sheet name="CANTONES" sheetId="3" r:id="rId3"/>
     <sheet name="PARROQUIAS" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4321" uniqueCount="1716">
   <si>
     <t>descripcion</t>
   </si>
@@ -5141,6 +5142,30 @@
   </si>
   <si>
     <t>select item.id from core_item item inner join core_catalogo cat on cat.id = item.catalogo_id where cat.codigo LIKE 'PROVINCIAS' AND item.codigo = 2</t>
+  </si>
+  <si>
+    <t>BAUTISMO</t>
+  </si>
+  <si>
+    <t>PRI_COMUNION</t>
+  </si>
+  <si>
+    <t>CONFIRMACION</t>
+  </si>
+  <si>
+    <t>MATRIMONIO</t>
+  </si>
+  <si>
+    <t>Bautismo</t>
+  </si>
+  <si>
+    <t>Primera Comunión</t>
+  </si>
+  <si>
+    <t>Confirmación</t>
+  </si>
+  <si>
+    <t>Matrimonio</t>
   </si>
 </sst>
 </file>
@@ -12753,7 +12778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -18622,8 +18647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1397"/>
   <sheetViews>
-    <sheetView topLeftCell="A694" workbookViewId="0">
-      <selection activeCell="A707" sqref="A707:H713"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54958,4 +54983,145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>